--- a/CTC_App/Iteration3/Track_Layout_Blue.xlsx
+++ b/CTC_App/Iteration3/Track_Layout_Blue.xlsx
@@ -109,14 +109,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -168,8 +168,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -191,55 +194,58 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -249,6 +255,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -562,50 +571,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="24" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="25" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="26" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="26" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="26" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="25" width="42.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="24" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="25" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="25" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="24" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="25" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="25" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="25" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="25" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="25" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="24" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="26" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="29" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="29" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="28" width="42.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="26" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="28" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="30" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="31" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="31" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="31" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="31" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="27" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="30" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="46.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -617,54 +626,54 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="11">
-        <v>50</v>
-      </c>
-      <c r="E2" s="11">
-        <v>50</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <v>0</v>
+      <c r="D2" s="12">
+        <v>50</v>
+      </c>
+      <c r="E2" s="12">
+        <v>50</v>
+      </c>
+      <c r="F2" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="12">
+        <v>-1</v>
       </c>
       <c r="J2" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K2" s="14"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
       <c r="Q2" s="15"/>
@@ -675,40 +684,40 @@
       <c r="V2" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
-        <v>50</v>
-      </c>
-      <c r="E3" s="11">
-        <v>50</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
+      <c r="D3" s="12">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12">
+        <v>50</v>
+      </c>
+      <c r="F3" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="12">
+        <v>-1</v>
       </c>
       <c r="J3" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K3" s="14"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
       <c r="O3" s="15"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
@@ -719,40 +728,40 @@
       <c r="V3" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="11">
-        <v>50</v>
-      </c>
-      <c r="E4" s="11">
-        <v>50</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
+      <c r="D4" s="12">
+        <v>50</v>
+      </c>
+      <c r="E4" s="12">
+        <v>50</v>
+      </c>
+      <c r="F4" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="12">
+        <v>-1</v>
       </c>
       <c r="J4" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -763,40 +772,40 @@
       <c r="V4" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="11">
         <v>4</v>
       </c>
-      <c r="D5" s="11">
-        <v>50</v>
-      </c>
-      <c r="E5" s="11">
-        <v>50</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="D5" s="12">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12">
+        <v>50</v>
+      </c>
+      <c r="F5" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="13">
         <v>1</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -807,40 +816,40 @@
       <c r="V5" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <v>5</v>
       </c>
-      <c r="D6" s="11">
-        <v>50</v>
-      </c>
-      <c r="E6" s="11">
-        <v>50</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="D6" s="12">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12">
+        <v>50</v>
+      </c>
+      <c r="F6" s="13">
         <v>6</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="13">
         <v>11</v>
       </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
+      <c r="H6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>-1</v>
       </c>
       <c r="J6" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="19"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
@@ -851,40 +860,40 @@
       <c r="V6" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>6</v>
       </c>
-      <c r="D7" s="11">
-        <v>50</v>
-      </c>
-      <c r="E7" s="11">
-        <v>50</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
+      <c r="D7" s="12">
+        <v>50</v>
+      </c>
+      <c r="E7" s="12">
+        <v>50</v>
+      </c>
+      <c r="F7" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="12">
+        <v>-1</v>
       </c>
       <c r="J7" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -895,43 +904,43 @@
       <c r="V7" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>7</v>
       </c>
-      <c r="D8" s="11">
-        <v>50</v>
-      </c>
-      <c r="E8" s="11">
-        <v>50</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
+      <c r="D8" s="12">
+        <v>50</v>
+      </c>
+      <c r="E8" s="12">
+        <v>50</v>
+      </c>
+      <c r="F8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>-1</v>
       </c>
       <c r="J8" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="21"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
@@ -939,40 +948,40 @@
       <c r="V8" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>8</v>
       </c>
-      <c r="D9" s="11">
-        <v>50</v>
-      </c>
-      <c r="E9" s="11">
-        <v>50</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
+      <c r="D9" s="12">
+        <v>50</v>
+      </c>
+      <c r="E9" s="12">
+        <v>50</v>
+      </c>
+      <c r="F9" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>-1</v>
       </c>
       <c r="J9" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="19"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
@@ -983,40 +992,40 @@
       <c r="V9" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="12">
         <v>9</v>
       </c>
-      <c r="D10" s="11">
-        <v>50</v>
-      </c>
-      <c r="E10" s="11">
-        <v>50</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
+      <c r="D10" s="12">
+        <v>50</v>
+      </c>
+      <c r="E10" s="12">
+        <v>50</v>
+      </c>
+      <c r="F10" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>-1</v>
       </c>
       <c r="J10" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="19"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
@@ -1027,40 +1036,40 @@
       <c r="V10" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>10</v>
       </c>
-      <c r="D11" s="11">
-        <v>50</v>
-      </c>
-      <c r="E11" s="11">
-        <v>50</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="D11" s="12">
+        <v>50</v>
+      </c>
+      <c r="E11" s="12">
+        <v>50</v>
+      </c>
+      <c r="F11" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="22">
         <v>1</v>
       </c>
       <c r="J11" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="19"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -1071,40 +1080,40 @@
       <c r="V11" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <v>11</v>
       </c>
-      <c r="D12" s="11">
-        <v>50</v>
-      </c>
-      <c r="E12" s="11">
-        <v>50</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
+      <c r="D12" s="12">
+        <v>50</v>
+      </c>
+      <c r="E12" s="12">
+        <v>50</v>
+      </c>
+      <c r="F12" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>-1</v>
       </c>
       <c r="J12" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
@@ -1115,40 +1124,40 @@
       <c r="V12" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>1</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>12</v>
       </c>
-      <c r="D13" s="11">
-        <v>50</v>
-      </c>
-      <c r="E13" s="11">
-        <v>50</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0</v>
+      <c r="D13" s="12">
+        <v>50</v>
+      </c>
+      <c r="E13" s="12">
+        <v>50</v>
+      </c>
+      <c r="F13" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>-1</v>
       </c>
       <c r="J13" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="19"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -1159,40 +1168,40 @@
       <c r="V13" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="11">
         <v>13</v>
       </c>
-      <c r="D14" s="11">
-        <v>50</v>
-      </c>
-      <c r="E14" s="11">
-        <v>50</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
+      <c r="D14" s="12">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12">
+        <v>50</v>
+      </c>
+      <c r="F14" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>-1</v>
       </c>
       <c r="J14" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="19"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -1203,40 +1212,40 @@
       <c r="V14" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>1</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>14</v>
       </c>
-      <c r="D15" s="11">
-        <v>50</v>
-      </c>
-      <c r="E15" s="11">
-        <v>50</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0</v>
+      <c r="D15" s="12">
+        <v>50</v>
+      </c>
+      <c r="E15" s="12">
+        <v>50</v>
+      </c>
+      <c r="F15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="12">
+        <v>-1</v>
       </c>
       <c r="J15" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="19"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
@@ -1247,40 +1256,40 @@
       <c r="V15" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>1</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <v>15</v>
       </c>
-      <c r="D16" s="11">
-        <v>50</v>
-      </c>
-      <c r="E16" s="11">
-        <v>50</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="D16" s="12">
+        <v>50</v>
+      </c>
+      <c r="E16" s="12">
+        <v>50</v>
+      </c>
+      <c r="F16" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="13">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="22">
         <v>1</v>
       </c>
       <c r="J16" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
@@ -1291,44 +1300,44 @@
       <c r="V16" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="19"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="14"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="14"/>
       <c r="L17" s="19"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="22"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="21"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
       <c r="V17" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="14"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="14"/>
       <c r="L18" s="19"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
@@ -1339,20 +1348,20 @@
       <c r="V18" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="19"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="14"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="14"/>
       <c r="L19" s="19"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
@@ -1363,20 +1372,20 @@
       <c r="V19" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="19"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="14"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="14"/>
       <c r="L20" s="19"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
@@ -1387,20 +1396,20 @@
       <c r="V20" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="19"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="19"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="19"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
@@ -1411,44 +1420,44 @@
       <c r="V21" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="19"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="19"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="19"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="21"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
       <c r="V22" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="19"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="19"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="19"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
@@ -1459,20 +1468,20 @@
       <c r="V23" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="19"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="19"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="19"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
@@ -1483,20 +1492,20 @@
       <c r="V24" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="19"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="19"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="19"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
@@ -1507,44 +1516,44 @@
       <c r="V25" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="19"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="19"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="19"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="22"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="21"/>
       <c r="S26" s="17"/>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
       <c r="V26" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="19"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="19"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="19"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
@@ -1555,20 +1564,20 @@
       <c r="V27" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="19"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="19"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="19"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
@@ -1579,20 +1588,20 @@
       <c r="V28" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="19"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="19"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="19"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
@@ -1603,20 +1612,20 @@
       <c r="V29" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="19"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="19"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="19"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
@@ -1627,20 +1636,20 @@
       <c r="V30" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="19"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="19"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="19"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
@@ -1651,20 +1660,20 @@
       <c r="V31" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="19"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="19"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="19"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
@@ -1675,20 +1684,20 @@
       <c r="V32" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="19"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="19"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="19"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
@@ -1699,20 +1708,20 @@
       <c r="V33" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
-      <c r="A34" s="19"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="19"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="19"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
@@ -1723,20 +1732,20 @@
       <c r="V34" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
-      <c r="A35" s="19"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="19"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="19"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
@@ -1747,44 +1756,44 @@
       <c r="V35" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
-      <c r="A36" s="19"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="19"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="19"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="22"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="21"/>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
       <c r="U36" s="17"/>
       <c r="V36" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="16.5">
-      <c r="A37" s="19"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="19"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="19"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
@@ -1795,20 +1804,20 @@
       <c r="V37" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="16.5">
-      <c r="A38" s="19"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="19"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
       <c r="L38" s="19"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
@@ -1819,20 +1828,20 @@
       <c r="V38" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="16.5">
-      <c r="A39" s="19"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="19"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="19"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
       <c r="O39" s="15"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
@@ -1843,20 +1852,20 @@
       <c r="V39" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="16.5">
-      <c r="A40" s="19"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="19"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="23"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="19"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
       <c r="O40" s="15"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
@@ -1867,20 +1876,20 @@
       <c r="V40" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="16.5">
-      <c r="A41" s="19"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="19"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="19"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
       <c r="O41" s="15"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
@@ -1891,20 +1900,20 @@
       <c r="V41" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="16.5">
-      <c r="A42" s="19"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="19"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="23"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
       <c r="L42" s="19"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
@@ -1915,20 +1924,20 @@
       <c r="V42" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="16.5">
-      <c r="A43" s="19"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="19"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="23"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="19"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
       <c r="O43" s="15"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
@@ -1939,20 +1948,20 @@
       <c r="V43" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="16.5">
-      <c r="A44" s="19"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="19"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="23"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="19"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
       <c r="O44" s="15"/>
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
@@ -1963,20 +1972,20 @@
       <c r="V44" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="16.5">
-      <c r="A45" s="19"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="19"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="23"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
       <c r="L45" s="19"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
       <c r="O45" s="15"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
@@ -1987,44 +1996,44 @@
       <c r="V45" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="16.5">
-      <c r="A46" s="19"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="19"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
       <c r="L46" s="19"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="22"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="21"/>
       <c r="S46" s="17"/>
       <c r="T46" s="17"/>
       <c r="U46" s="17"/>
       <c r="V46" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="16.5">
-      <c r="A47" s="19"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="19"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="23"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
       <c r="L47" s="19"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
       <c r="O47" s="15"/>
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
@@ -2035,20 +2044,20 @@
       <c r="V47" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="16.5">
-      <c r="A48" s="19"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="19"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="23"/>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="19"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
       <c r="O48" s="15"/>
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
@@ -2059,44 +2068,44 @@
       <c r="V48" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="16.5">
-      <c r="A49" s="19"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="19"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="23"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
       <c r="L49" s="19"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="22"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="21"/>
       <c r="S49" s="17"/>
       <c r="T49" s="17"/>
       <c r="U49" s="17"/>
       <c r="V49" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="16.5">
-      <c r="A50" s="19"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="19"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="23"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
       <c r="L50" s="19"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
       <c r="O50" s="15"/>
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
@@ -2107,20 +2116,20 @@
       <c r="V50" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="16.5">
-      <c r="A51" s="19"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="19"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="23"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
       <c r="L51" s="19"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
       <c r="O51" s="15"/>
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
@@ -2131,20 +2140,20 @@
       <c r="V51" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="16.5">
-      <c r="A52" s="19"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="19"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="23"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
       <c r="L52" s="19"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
       <c r="O52" s="15"/>
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
@@ -2155,20 +2164,20 @@
       <c r="V52" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="16.5">
-      <c r="A53" s="19"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="19"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="23"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
       <c r="L53" s="19"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
       <c r="O53" s="15"/>
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
@@ -2179,20 +2188,20 @@
       <c r="V53" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="16.5">
-      <c r="A54" s="19"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="19"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="23"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
       <c r="L54" s="19"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
       <c r="O54" s="15"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
@@ -2203,20 +2212,20 @@
       <c r="V54" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="16.5">
-      <c r="A55" s="19"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="19"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="23"/>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
       <c r="L55" s="19"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
       <c r="O55" s="15"/>
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
@@ -2227,20 +2236,20 @@
       <c r="V55" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="16.5">
-      <c r="A56" s="19"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="19"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="23"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
       <c r="L56" s="19"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
       <c r="O56" s="15"/>
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
@@ -2251,20 +2260,20 @@
       <c r="V56" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="16.5">
-      <c r="A57" s="19"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="19"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="23"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="19"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
       <c r="O57" s="15"/>
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
@@ -2275,20 +2284,20 @@
       <c r="V57" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="16.5">
-      <c r="A58" s="19"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="19"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="23"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="19"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
       <c r="O58" s="15"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
@@ -2299,20 +2308,20 @@
       <c r="V58" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="16.5">
-      <c r="A59" s="19"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="19"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="23"/>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
       <c r="L59" s="19"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
       <c r="O59" s="15"/>
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
@@ -2323,20 +2332,20 @@
       <c r="V59" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="16.5">
-      <c r="A60" s="19"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="19"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="23"/>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
       <c r="L60" s="19"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
       <c r="O60" s="15"/>
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
@@ -2347,24 +2356,24 @@
       <c r="V60" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="16.5">
-      <c r="A61" s="19"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="19"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="23"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
       <c r="L61" s="19"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="22"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="21"/>
       <c r="S61" s="17"/>
       <c r="T61" s="17"/>
       <c r="U61" s="17"/>
